--- a/biology/Mycologie/Pholiote_destructrice/Pholiote_destructrice.xlsx
+++ b/biology/Mycologie/Pholiote_destructrice/Pholiote_destructrice.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hemipholiota populnea
-La pholiote destructrice (Pholiota populnea[1],[2], Hemipholiota populnea ou Pholiota destruens) est une espèce de champignons basidiomycètes de la famille des Cortinariaceae poussant sur les coupes de peuplier.
+La pholiote destructrice (Pholiota populnea Hemipholiota populnea ou Pholiota destruens) est une espèce de champignons basidiomycètes de la famille des Cortinariaceae poussant sur les coupes de peuplier.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses carpophores sont de grande taille à maturité, robustes ; le dessus du chapeau est tapissé d'écailles laineuses ainsi que la partie du pied située sous l'anneau.
 </t>
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce champignon se développe principalement sur les peupliers (Populus sp.) en décomposition au sol et sur pied s'il est blessé ; son mycélium atteint prioritairement les parties tendres, le cœur du tronc et sous l'écorce.
 </t>
@@ -574,7 +590,9 @@
           <t>Comestibilité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Non comestible.
 			Pholiote destructrice sous la neige.
